--- a/src/5t/assets/BEAM_1.xlsx
+++ b/src/5t/assets/BEAM_1.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
-    <t xml:space="preserve"> 二级BOM  主梁，11˂S≤11.5 ，4.4˂H0≤7.5m（图号：M60332）</t>
-  </si>
-  <si>
-    <t>7004-00172</t>
+    <t xml:space="preserve"> 二级BOM  主梁，11˂S≤11.5 ，4.4˂H0≤7.5m（图号：M60532）</t>
+  </si>
+  <si>
+    <t>7004-00319</t>
   </si>
   <si>
     <t>主梁</t>
@@ -91,7 +91,7 @@
     <t>M310501.4</t>
   </si>
   <si>
-    <t>7004-00231</t>
+    <t>7004-00390</t>
   </si>
   <si>
     <t>工字钢 I28b</t>
@@ -106,7 +106,7 @@
     <t>Q235BF</t>
   </si>
   <si>
-    <t>7004-00232</t>
+    <t>7004-00391</t>
   </si>
   <si>
     <t>侧盖板</t>
@@ -130,7 +130,7 @@
     <t>借NF100-00</t>
   </si>
   <si>
-    <t>7004-00233</t>
+    <t>7004-00392</t>
   </si>
   <si>
     <t xml:space="preserve">U型槽 </t>
@@ -139,7 +139,7 @@
     <t>U型槽 5×350×325-(S-6)</t>
   </si>
   <si>
-    <t>7004-00234</t>
+    <t>7004-00393</t>
   </si>
   <si>
     <t>隔板</t>
@@ -148,7 +148,7 @@
     <t>隔板 5×340×415</t>
   </si>
   <si>
-    <t>7004-00235</t>
+    <t>7004-00394</t>
   </si>
   <si>
     <t>燕尾板</t>
@@ -157,7 +157,7 @@
     <t>燕尾板 6×420×400</t>
   </si>
   <si>
-    <t>7004-00236</t>
+    <t>7004-00395</t>
   </si>
   <si>
     <t>挂板</t>
@@ -166,7 +166,7 @@
     <t>挂板 16×295×560</t>
   </si>
   <si>
-    <t>7004-00237</t>
+    <t>7004-00396</t>
   </si>
   <si>
     <t>堵头板</t>
@@ -175,7 +175,7 @@
     <t>堵头板 6×570×710</t>
   </si>
   <si>
-    <t>7004-00238</t>
+    <t>7004-00397</t>
   </si>
   <si>
     <t>加强板</t>
@@ -184,7 +184,7 @@
     <t>板 6×280×450</t>
   </si>
   <si>
-    <t>7004-00239</t>
+    <t>7004-00398</t>
   </si>
   <si>
     <t>挑线架</t>
@@ -193,7 +193,7 @@
     <t>M60331.1A</t>
   </si>
   <si>
-    <t>7004-00240</t>
+    <t>7004-00399</t>
   </si>
   <si>
     <t>法兰板</t>
@@ -208,9 +208,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -236,6 +236,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -243,10 +257,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,60 +273,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -327,26 +287,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -358,10 +303,65 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -412,24 +412,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -442,85 +544,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,7 +580,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,49 +592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,6 +622,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -638,11 +653,42 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,59 +708,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,10 +726,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -738,133 +738,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1230,7 +1230,7 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>

--- a/src/5t/assets/BEAM_1.xlsx
+++ b/src/5t/assets/BEAM_1.xlsx
@@ -208,9 +208,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -236,7 +236,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,32 +250,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -296,38 +280,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,7 +288,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,10 +318,49 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,13 +378,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -412,79 +412,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,103 +592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,33 +651,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -710,6 +683,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -726,10 +726,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -738,133 +738,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1230,7 +1230,7 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1797,9 +1797,7 @@
       <c r="J12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="K12" s="8"/>
       <c r="L12" s="11">
         <v>4.99</v>
       </c>
@@ -1849,9 +1847,7 @@
       <c r="J13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="K13" s="8"/>
       <c r="L13" s="6">
         <v>5.4</v>
       </c>
@@ -1901,9 +1897,7 @@
       <c r="J14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="K14" s="8"/>
       <c r="L14" s="6">
         <v>15.1</v>
       </c>
@@ -1953,9 +1947,7 @@
       <c r="J15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="K15" s="8"/>
       <c r="L15" s="6">
         <v>16.67</v>
       </c>
@@ -2005,9 +1997,7 @@
       <c r="J16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="K16" s="8"/>
       <c r="L16" s="6">
         <v>4.6</v>
       </c>
@@ -2109,9 +2099,7 @@
       <c r="J18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="K18" s="8"/>
       <c r="L18" s="6">
         <v>37.3</v>
       </c>
